--- a/xlsx/SantaCruz_output.xlsx
+++ b/xlsx/SantaCruz_output.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t>Última actualización: Julio, 2016
 TARIFARIO DE SERVICIOS
@@ -787,285 +787,6 @@
     <t>Suspensión cheques en Euros</t>
   </si>
   <si>
-    <t>Otras Tarifas</t>
-  </si>
-  <si>
-    <t>Otras tarifas</t>
-  </si>
-  <si>
-    <t>Cargo por venta de Ck. administrativode intereses certificado de depósitos:</t>
-  </si>
-  <si>
-    <t>Depósitos nocturnos</t>
-  </si>
-  <si>
-    <t>Cheques en pesos</t>
-  </si>
-  <si>
-    <t>RD$3500..0105 %+</t>
-  </si>
-  <si>
-    <t>Cargo mensual por depósitos
-identificados</t>
-  </si>
-  <si>
-    <t>RD$10.00 pordepósito</t>
-  </si>
-  <si>
-    <t>Cheque en dólares</t>
-  </si>
-  <si>
-    <t>US$15.00
-(titular)US$25.00(tercero)</t>
-  </si>
-  <si>
-    <t>Comisión retiros por ventanilla</t>
-  </si>
-  <si>
-    <t>Carta de saldo:</t>
-  </si>
-  <si>
-    <t>Costo anual confección o
-reposición de tulas para recogidas
-de depósitos seguros</t>
-  </si>
-  <si>
-    <t>1- Préstamo en estado normal</t>
-  </si>
-  <si>
-    <t>Costo anual confección de valija/</t>
-  </si>
-  <si>
-    <t>2- Préstamo en legal</t>
-  </si>
-  <si>
-    <t>Duplicado de llaves</t>
-  </si>
-  <si>
-    <t>Honorarios legales para entregavalores de depositantes fallecidos</t>
-  </si>
-  <si>
-    <t>Caja de seguridad</t>
-  </si>
-  <si>
-    <t>Hasta RD$1,000,000.00</t>
-  </si>
-  <si>
-    <t>Pequeñas</t>
-  </si>
-  <si>
-    <t>De RD$1,000,001.00 en adelante</t>
-  </si>
-  <si>
-    <t>Medianas</t>
-  </si>
-  <si>
-    <t>RD$7,000.00</t>
-  </si>
-  <si>
-    <t>Varios</t>
-  </si>
-  <si>
-    <t>Grandes</t>
-  </si>
-  <si>
-    <t>$10,000.R0D0</t>
-  </si>
-  <si>
-    <t>Acta cancelación de hipoteca</t>
-  </si>
-  <si>
-    <t>pRoDr$ i1n,m00u0e.b0l0e</t>
-  </si>
-  <si>
-    <t>RD$1,000.00 +</t>
-  </si>
-  <si>
-    <t>Cambio de cerradura por pérdida</t>
-  </si>
-  <si>
-    <t>gastos legales +</t>
-  </si>
-  <si>
-    <t>de llaves</t>
-  </si>
-  <si>
-    <t>cotización de</t>
-  </si>
-  <si>
-    <t>Pérdida de certificado financiero</t>
-  </si>
-  <si>
-    <t>gastos</t>
-  </si>
-  <si>
-    <t>Cargo por venta de Ck.administrativo privado:</t>
-  </si>
-  <si>
-    <t>Pérdida de cheque certificado o
-administración</t>
-  </si>
-  <si>
-    <t>Hasta 10M</t>
-  </si>
-  <si>
-    <t>RD$100.00 +</t>
-  </si>
-  <si>
-    <t>Carta compromisoria por levantamiento</t>
-  </si>
-  <si>
-    <t>Hasta 50M</t>
-  </si>
-  <si>
-    <t>RD$1500..0105 %+</t>
-  </si>
-  <si>
-    <t>Certificación por consignación fondos</t>
-  </si>
-  <si>
-    <t>Hasta 100M</t>
-  </si>
-  <si>
-    <t>RD$2500..0105 %+</t>
-  </si>
-  <si>
-    <t>Copiado de documentación Microfilm</t>
-  </si>
-  <si>
-    <t>Hasta 500M</t>
-  </si>
-  <si>
-    <t>RD$5000..0105 %+</t>
-  </si>
-  <si>
-    <t>Cartas consulares/referencias</t>
-  </si>
-  <si>
-    <t>Hasta 1MM</t>
-  </si>
-  <si>
-    <t>RD$1,000.00+ 0.15%</t>
-  </si>
-  <si>
-    <t>Reclamación por error en depósito</t>
-  </si>
-  <si>
-    <t>RD$175.00</t>
-  </si>
-  <si>
-    <t>Más de 1MM</t>
-  </si>
-  <si>
-    <t>RD$1,250.00</t>
-  </si>
-  <si>
-    <t>Cargo por servicio pago de Impuesto</t>
-  </si>
-  <si>
-    <t>Recogida depósito seguro (por
-servicio) acumulativo mensual</t>
-  </si>
-  <si>
-    <t>Cargo por venta de Ck. administrativo
-de gobierno</t>
-  </si>
-  <si>
-    <t>RD$350.00 +
-0.15%</t>
-  </si>
-  <si>
-    <t>Certificados de auditoría</t>
-  </si>
-  <si>
-    <t>Programa de asistencia</t>
-  </si>
-  <si>
-    <t>Clásica: RD$135.00, Gold:
-RD$203.00,Platinum: RD$275.00</t>
-  </si>
-  <si>
-    <t>Pagos de servicios e impuestos</t>
-  </si>
-  <si>
-    <t>Avance de efectivo en RD$ y US$</t>
-  </si>
-  <si>
-    <t>Pago impuesto DGA</t>
-  </si>
-  <si>
-    <t>y Bancanet:</t>
-  </si>
-  <si>
-    <t>Envío de estados de cuentas físicos</t>
-  </si>
-  <si>
-    <t>RDc$a5d0a. 0u0n opor</t>
-  </si>
-  <si>
-    <t>Caja</t>
-  </si>
-  <si>
-    <t>Recogida depósito seguro (por servicio)</t>
-  </si>
-  <si>
-    <t>Pago impuesto DGII</t>
-  </si>
-  <si>
-    <t>acumulativo mensual</t>
-  </si>
-  <si>
-    <t>Caja:</t>
-  </si>
-  <si>
-    <t>Pago impuesto INFOTEP</t>
-  </si>
-  <si>
-    <t>BRaDn$c9a0n.e0t0:</t>
-  </si>
-  <si>
-    <t>RD$30.00</t>
-  </si>
-  <si>
-    <t>Pago impuesto TSS</t>
-  </si>
-  <si>
-    <t>Comisión venta de cheque</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>administración a no clientes</t>
-  </si>
-  <si>
-    <t>Depósitos seguros</t>
-  </si>
-  <si>
-    <t>Bolsas de seguridad:</t>
-  </si>
-  <si>
-    <t>Tipo C</t>
-  </si>
-  <si>
-    <t>Tipo D</t>
-  </si>
-  <si>
-    <t>RD$40.00</t>
-  </si>
-  <si>
-    <t>Tipo E</t>
-  </si>
-  <si>
-    <t>RD$60.00</t>
-  </si>
-  <si>
-    <t>Planillas de depósito</t>
-  </si>
-  <si>
-    <t>RD$I4T5B0I.S00 +</t>
-  </si>
-  <si>
     <t>Última actualización: Septiembre, 2016</t>
   </si>
   <si>
@@ -1216,6 +937,9 @@
   </si>
   <si>
     <t>Infinite (Titular)</t>
+  </si>
+  <si>
+    <t>RD$7,000.00</t>
   </si>
   <si>
     <t>Infinite (Adicional)</t>
@@ -1407,6 +1131,9 @@
     <t>Full Car Empresarial</t>
   </si>
   <si>
+    <t>Otras Tarifas</t>
+  </si>
+  <si>
     <t>Copia de voucher por consumo del 
 cliente en RD$</t>
   </si>
@@ -1437,6 +1164,9 @@
   <si>
     <t>Costo emisión tarjeta 
 adicional</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>RD$150.
@@ -1608,6 +1338,296 @@
     <t>a partir del 14 de agosto 2016</t>
   </si>
   <si>
+    <t>Última actualización: 30 diciembre, 2016</t>
+  </si>
+  <si>
+    <t>Otras tarifas</t>
+  </si>
+  <si>
+    <t>Cargo por venta de Ck.  administrativo de 
+intereses certificado de depósitos:</t>
+  </si>
+  <si>
+    <t>Depósitos nocturnos</t>
+  </si>
+  <si>
+    <t>Cheques en pesos</t>
+  </si>
+  <si>
+    <t>RD$350.00 + 0.15%</t>
+  </si>
+  <si>
+    <t>Cargo mensual por depósitos identificados</t>
+  </si>
+  <si>
+    <t>RD$10.00 por 
+depósito</t>
+  </si>
+  <si>
+    <t>Cheque en dólares</t>
+  </si>
+  <si>
+    <t>US$15.00 (titular)
+US$25.00 (tercero)</t>
+  </si>
+  <si>
+    <t>Comisión retiros por ventanilla</t>
+  </si>
+  <si>
+    <t>Carta de saldo:</t>
+  </si>
+  <si>
+    <t>Costo anual confección o reposición de tulas 
+para recogidas de depósitos seguros</t>
+  </si>
+  <si>
+    <t>1- Préstamo en estado normal</t>
+  </si>
+  <si>
+    <t>Costo anual confección de valija/depósito 
+nocturno</t>
+  </si>
+  <si>
+    <t>2- Préstamo en legal</t>
+  </si>
+  <si>
+    <t>Duplicado de llaves</t>
+  </si>
+  <si>
+    <t>Honorarios legales para entrega valores de 
+depositantes fallecidos</t>
+  </si>
+  <si>
+    <t>Caja de seguridad</t>
+  </si>
+  <si>
+    <t>Hasta RD$1,000,000.00</t>
+  </si>
+  <si>
+    <t>Pequeñas</t>
+  </si>
+  <si>
+    <t>De RD$1,000,001.00 en adelante</t>
+  </si>
+  <si>
+    <t>Medianas</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Grandes</t>
+  </si>
+  <si>
+    <t>Acta cancelación de hipoteca</t>
+  </si>
+  <si>
+    <t>RD$1,200.00 por 
+inmueble</t>
+  </si>
+  <si>
+    <t>RD$1,000.00 +</t>
+  </si>
+  <si>
+    <t>gastos legales +</t>
+  </si>
+  <si>
+    <t>Cambio de cerradura por pérdida de llaves</t>
+  </si>
+  <si>
+    <t>Pérdida de certificado financiero</t>
+  </si>
+  <si>
+    <t>cotización de</t>
+  </si>
+  <si>
+    <t>gastos</t>
+  </si>
+  <si>
+    <t>Cargo por venta de Ck. administrativo</t>
+  </si>
+  <si>
+    <t>Pérdida de cheque certificado o administración</t>
+  </si>
+  <si>
+    <t>privado:</t>
+  </si>
+  <si>
+    <t>Hasta 10M</t>
+  </si>
+  <si>
+    <t>RD$100.00 + 
+0.15%</t>
+  </si>
+  <si>
+    <t>Carta compromisoria por levantamiento embargo</t>
+  </si>
+  <si>
+    <t>Hasta 50M</t>
+  </si>
+  <si>
+    <t>RD$150.00 + 
+0.15%</t>
+  </si>
+  <si>
+    <t>Certificación por consignación fondos</t>
+  </si>
+  <si>
+    <t>Hasta 100M</t>
+  </si>
+  <si>
+    <t>RD$250.00 + 
+0.15%</t>
+  </si>
+  <si>
+    <t>Copiado de documentación Microfilm</t>
+  </si>
+  <si>
+    <t>Hasta 500M</t>
+  </si>
+  <si>
+    <t>RD$500.00 + 
+0.15%</t>
+  </si>
+  <si>
+    <t>Cartas consulares/referencias</t>
+  </si>
+  <si>
+    <t>Hasta 1MM</t>
+  </si>
+  <si>
+    <t>RD$1,000.00 + 
+0.15%</t>
+  </si>
+  <si>
+    <t>Reclamación por error en depósito</t>
+  </si>
+  <si>
+    <t>RD$175.00</t>
+  </si>
+  <si>
+    <t>Más de 1MM</t>
+  </si>
+  <si>
+    <t>RD$1,250.00 + 
+0.15%</t>
+  </si>
+  <si>
+    <t>Cargo por servicio pago de Impuesto DGA</t>
+  </si>
+  <si>
+    <t>Recogida depósito seguro (por servicio) 
+acumulativo mensual</t>
+  </si>
+  <si>
+    <t>Cargo por venta de Ck. administrativo de gobierno</t>
+  </si>
+  <si>
+    <t>Certificados de auditoría</t>
+  </si>
+  <si>
+    <t>Programa de asistencia</t>
+  </si>
+  <si>
+    <t>Clásica: RD$135.00, 
+Gold: RD$203.00, 
+Platinum: RD$275.00</t>
+  </si>
+  <si>
+    <t>Pagos de servicios e impuestos</t>
+  </si>
+  <si>
+    <t>Avance de efectivo en RD$ y US$</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>RD$50.00 por cada</t>
+  </si>
+  <si>
+    <t>Pago impuesto DGA</t>
+  </si>
+  <si>
+    <t>y Bancanet:</t>
+  </si>
+  <si>
+    <t>Envío de estados de cuentas físicos</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>Caja:</t>
+  </si>
+  <si>
+    <t>Recogida depósito seguro (por servicio)</t>
+  </si>
+  <si>
+    <t>Pago impuesto DGII</t>
+  </si>
+  <si>
+    <t>Bancanet:</t>
+  </si>
+  <si>
+    <t>acumulativo mensual</t>
+  </si>
+  <si>
+    <t>RD$80.00</t>
+  </si>
+  <si>
+    <t>Pago impuesto INFOTEP</t>
+  </si>
+  <si>
+    <t>Pago impuesto TSS</t>
+  </si>
+  <si>
+    <t>Comisión venta de cheque administración a no 
+clientes</t>
+  </si>
+  <si>
+    <t>Depósitos seguros</t>
+  </si>
+  <si>
+    <t>Bolsas de seguridad:</t>
+  </si>
+  <si>
+    <t>Tipo C</t>
+  </si>
+  <si>
+    <t>RD$30.00</t>
+  </si>
+  <si>
+    <t>Tipo D</t>
+  </si>
+  <si>
+    <t>RD$40.00</t>
+  </si>
+  <si>
+    <t>Tipo E</t>
+  </si>
+  <si>
+    <t>RD$60.00</t>
+  </si>
+  <si>
+    <t>Planillas de depósito</t>
+  </si>
+  <si>
+    <t>RD$450.00 + ITBIS</t>
+  </si>
+  <si>
+    <t>*Las tarifas sombreadas en gris entraron en</t>
+  </si>
+  <si>
+    <t>vigencia a partir del 14 de agosto 2016</t>
+  </si>
+  <si>
+    <t>*Las tarifas sombreadas en azul entrarán en</t>
+  </si>
+  <si>
+    <t>vigencia a partir del 2 de febrero 2017</t>
+  </si>
+  <si>
     <t>Préstamos</t>
   </si>
   <si>
@@ -1628,6 +1648,9 @@
 o al pagar en ventanilla)</t>
   </si>
   <si>
+    <t>Última actualización: Enero, 2017</t>
+  </si>
+  <si>
     <t>Servicios electrónicos</t>
   </si>
   <si>
@@ -1637,37 +1660,40 @@
     <t>Nómina electrónica</t>
   </si>
   <si>
-    <t>Transacciones entre cuentas de un mismocliente</t>
+    <t>Transacciones entre cuentas de un 
+mismo cliente</t>
   </si>
   <si>
     <t>Manejo de cuentas</t>
   </si>
   <si>
-    <t>Transferencia hacia cuentas de
+    <t>Transferencia hacia cuentas de 
 diferente(s) cliente(s)</t>
   </si>
   <si>
     <t>RD$10.00</t>
   </si>
   <si>
-    <t>Cargo por retiro en caja, monto establecido de
-RD$100.00 a RD$32M. RD$15 por retiro
-cuentas nómina</t>
-  </si>
-  <si>
-    <t>Transacciones hacia productos de
+    <t>Cargo por retiro en caja, monto 
+establecido de RD$100.00 a  RD$20.00 
+RD$32M. RD$15 por retiro</t>
+  </si>
+  <si>
+    <t>Transacciones hacia productos de 
 diferente(s) cliente(s)</t>
   </si>
   <si>
-    <t>Renovación de tarjeta de Débito cuenta nómina
-cada 2 años</t>
-  </si>
-  <si>
-    <t>Pago de préstamos y tarjetas de crédito*</t>
+    <t>cuentas nómina
+Renovación de tarjeta de Débito 
+cuenta nómina cada 2 años</t>
+  </si>
+  <si>
+    <t>Pago de préstamos y tarjetas de 
+crédito*</t>
   </si>
   <si>
     <t>RD$10.00
-(Transferencias a
+(Transferencias a 
 otros bancos)</t>
   </si>
   <si>
@@ -1677,15 +1703,15 @@
     <t>Pagos recurrentes*</t>
   </si>
   <si>
-    <t>Retiros en cajeros propios del Banco Santa Cruz
-hasta RD$32,000.00 en cuatro transacciones de
-RD$8,000.00</t>
+    <t>Retiros en cajeros propios del Banco 
+Santa Cruz hasta RD$32,000.00 en 
+cuatro transacciones de</t>
   </si>
   <si>
     <t>Pagos a suplidores*</t>
   </si>
   <si>
-    <t>Ver consulta en pantalla</t>
+    <t>RD$8,000.00Ver consulta en pantalla</t>
   </si>
   <si>
     <t>Pago de servicios*</t>
@@ -1700,32 +1726,39 @@
     <t>Pago de servicios gubernamentales</t>
   </si>
   <si>
-    <t>Retiros y consultas en cajeros de otros bancos</t>
-  </si>
-  <si>
-    <t>Cargo mensual uso red ATH (excepto nóminaelectrónica)</t>
-  </si>
-  <si>
-    <t>RD$80.00</t>
-  </si>
-  <si>
-    <t>Retiros y consultas en red ATM internacional</t>
+    <t>Retiros y consultas en cajeros de 
+otros bancos</t>
+  </si>
+  <si>
+    <t>Cargo mensual uso red ATH 
+(excepto nómina electrónica)</t>
+  </si>
+  <si>
+    <t>Caja:
+Gratis
+Bancanet:
+RD$80.00</t>
+  </si>
+  <si>
+    <t>Retiros y consultas en red  ATM 
+internacional</t>
   </si>
   <si>
     <t>Transacciones inválidas red ATH</t>
   </si>
   <si>
-    <t>Reclamación no reconocida en cajero</t>
+    <t>Reclamación no reconocida en 
+cajero</t>
   </si>
   <si>
     <t>Pagos de nómina electronica</t>
   </si>
   <si>
-    <t>*Nota: Las transacciones electrónicas a productos de terceros
-llevan un cargo de 0.15% de ley.</t>
-  </si>
-  <si>
-    <t>Última revisión: Julio, 2016</t>
+    <t>*Nota : Las transacciones electrónicas a productos de 
+terceros llevan un cargo de 0.15% de ley.</t>
+  </si>
+  <si>
+    <t>Última actualización al 30 diciembre, 2016</t>
   </si>
   <si>
     <t>Honorarios y gastos legales por redacción</t>
@@ -1755,121 +1788,123 @@
     <t>Gastos y honorarios legales</t>
   </si>
   <si>
-    <t>Tipo dper écsotantmraoto de</t>
+    <t>Tipo de contrato de 
+préstamo</t>
   </si>
   <si>
     <t>Gastos y honorarios</t>
   </si>
   <si>
-    <t>Contrato con garantía de</t>
-  </si>
-  <si>
-    <t>prenda sin</t>
-  </si>
-  <si>
-    <t>RD$3,105.00 de gastos + honorarios</t>
-  </si>
-  <si>
-    <t>legales</t>
-  </si>
-  <si>
-    <t>desapoderamiento</t>
-  </si>
-  <si>
-    <t>por redacción de contrato</t>
-  </si>
-  <si>
-    <t>(vehículos de motor) *</t>
-  </si>
-  <si>
-    <t>Contrato con garantía de
-prenda sin
-desapoderamiento
+    <t>Contrato con garantía de  
+prenda sin 
+desapoderamiento  
+(vehículos de motor) *</t>
+  </si>
+  <si>
+    <t>RD$3,365.00 de gastos  + honorarios  legales por 
+redacción de contrato</t>
+  </si>
+  <si>
+    <t>Contrato con garantía de 
+prenda sin 
+desapoderamiento 
 (maquinarias y equipos)</t>
   </si>
   <si>
-    <t>RD$1,725.00 de gastos + honorarios
+    <t>RD$1,985.00 de gastos + honorarios  legales por 
+redacción de contrato</t>
+  </si>
+  <si>
+    <t>Contrato con garantía 
+hipotecaria**</t>
+  </si>
+  <si>
+    <t>RD$2,940.00 de gastos + 2% impuesto de hipoteca 
+(sobre el valor del préstamo) + honorarios  legales 
 por redacción de contrato</t>
   </si>
   <si>
-    <t>Contrato con garantía
-hipotecaria**</t>
-  </si>
-  <si>
-    <t>RD$2,740.00 de gastos + 2% impuesto de
-hipoteca (sobre el valor del préstamo) +
-honorarios legales por redacción de contrato</t>
-  </si>
-  <si>
-    <t>RD$2,760.00 de gastos + 3% de impuesto de</t>
+    <t>RD$2,960.00 de gastos + 3% de impuesto de</t>
   </si>
   <si>
     <t>Contrato con garantía</t>
   </si>
   <si>
-    <t>transferencia (se toma en cuenta el valor más</t>
-  </si>
-  <si>
-    <t>hipotecaria para</t>
-  </si>
-  <si>
-    <t>alto entre el valor del acto de transferencia o</t>
-  </si>
-  <si>
-    <t>adquisición de inmueble</t>
-  </si>
-  <si>
-    <t>el valor del inmueble en la DGII) + honorarios</t>
-  </si>
-  <si>
-    <t>(contrato tripartito)**</t>
-  </si>
-  <si>
-    <t>legales por redacción de contrato</t>
-  </si>
-  <si>
-    <t>Modificación de contrato
-con garantía de prenda</t>
-  </si>
-  <si>
-    <t>RD$4,000.00 incluye gastos y honorarios</t>
-  </si>
-  <si>
-    <t>sin desapoderamiento*</t>
+    <t>transferencia (se toma en cuenta el valor más alto</t>
+  </si>
+  <si>
+    <t>hipotecaria para adquisición</t>
+  </si>
+  <si>
+    <t>entre el valor del acto de transferencia o el valor del</t>
+  </si>
+  <si>
+    <t>de inmueble (contrato</t>
+  </si>
+  <si>
+    <t>inmueble en la DGII) + honorarios  legales por</t>
+  </si>
+  <si>
+    <t>tripartito)**</t>
+  </si>
+  <si>
+    <t>redacción de contrato</t>
+  </si>
+  <si>
+    <t>Modificación de contrato 
+con garantía de prenda sin 
+desapoderamiento*</t>
+  </si>
+  <si>
+    <t>RD$4,260.00 incluye gastos y honorarios legales</t>
   </si>
   <si>
     <t>Modificación de contrato</t>
   </si>
   <si>
-    <t>con garantía hipotecaria</t>
-  </si>
-  <si>
-    <t>RD$5,740.00 incluye gastos y honorarios</t>
-  </si>
-  <si>
-    <t>que no conlleve aumento</t>
-  </si>
-  <si>
-    <t>del préstamo*</t>
-  </si>
-  <si>
-    <t>RD$2,740.00 de gastos + 2% impuesto de</t>
-  </si>
-  <si>
-    <t>hipoteca (sobre el valor del aumento) +</t>
-  </si>
-  <si>
-    <t>que conlleve aumentodel préstamo**</t>
-  </si>
-  <si>
-    <t>honorarios legales por redacción del contrato</t>
-  </si>
-  <si>
-    <t>*Los gastos de elaboración de contrato con garantía de prenda sin
-desapoderamiento (vehículos de motor), así como la modificación de
-dicho contrato estarán sujetos a variación en los siguientes casos: 1)
-Cuando exista más de un vehículo en garantía; 2) Cuando la prenda deba
-ser inscrita fuera de la ciudad de Santo Domingo o Santiago.</t>
+    <t>con garantía hipotecaria que</t>
+  </si>
+  <si>
+    <t>RD$5,940.00 incluye gastos y honorarios legales</t>
+  </si>
+  <si>
+    <t>no conlleve aumento del</t>
+  </si>
+  <si>
+    <t>préstamo*</t>
+  </si>
+  <si>
+    <t>RD$2,940.00 de gastos + 2% impuesto de hipoteca</t>
+  </si>
+  <si>
+    <t>(sobre el valor del aumento) + honorarios legales</t>
+  </si>
+  <si>
+    <t>conlleve aumento del</t>
+  </si>
+  <si>
+    <t>por redacción del contrato</t>
+  </si>
+  <si>
+    <t>préstamo**</t>
+  </si>
+  <si>
+    <t>*Los gastos de elaboración de contrato con garantía de prenda sin</t>
+  </si>
+  <si>
+    <t>desapoderamiento (vehículos de motor), así como la modificación</t>
+  </si>
+  <si>
+    <t>de dicho contrato estarán sujetos a variación en los siguientes</t>
+  </si>
+  <si>
+    <t>casos: 1) Cuando exista más de un vehículo en garantía; 2) Cuando</t>
+  </si>
+  <si>
+    <t>la prenda deba ser inscrita fuera de la ciudad de Santo Domingo o</t>
+  </si>
+  <si>
+    <t>Santiago.</t>
   </si>
   <si>
     <t>**Los gastos de elaboración de contrato con garantía</t>
@@ -1878,28 +1913,32 @@
     <t>hipotecaria, así como la modificación de dicho contrato</t>
   </si>
   <si>
-    <t>estarán sujetos a variación en los siguientes casos: 1) Cuando exista más</t>
-  </si>
-  <si>
-    <t>de un inmueble en garantía; 2) En caso de que el inmueble en garantía no</t>
-  </si>
-  <si>
-    <t>este deslindado; 3) Cuando deba cancelarse hipoteca inscrita sobre el</t>
-  </si>
-  <si>
-    <t>inmueble a favor de un tercero; 4) Cuando la hipoteca deba ser inscrita</t>
-  </si>
-  <si>
-    <t>fuera de la ciudad de Santo Domingo o Santiago. Todos estos gastos se</t>
-  </si>
-  <si>
-    <t>encuentran detallados en la hoja de cálculo de honorarios y gastos</t>
-  </si>
-  <si>
-    <t>legales del banco.</t>
-  </si>
-  <si>
-    <t>Honorarios y gastos legales por redacción de otros contratos depréstamo sin importar el monto del préstamo</t>
+    <t>estarán sujetos a variación en los siguientes casos: 1) Cuando</t>
+  </si>
+  <si>
+    <t>exista más de un inmueble en garantía; 2) En caso de que el</t>
+  </si>
+  <si>
+    <t>inmueble en garantía no este deslindado; 3) Cuando deba</t>
+  </si>
+  <si>
+    <t>cancelarse hipoteca inscrita sobre el inmueble a favor de un</t>
+  </si>
+  <si>
+    <t>tercero; 4) Cuando la hipoteca deba ser inscrita fuera de la ciudad</t>
+  </si>
+  <si>
+    <t>de Santo Domingo o Santiago. Todos estos gastos se encuentran</t>
+  </si>
+  <si>
+    <t>detallados en la hoja de cálculo de honorarios y gastos legales del</t>
+  </si>
+  <si>
+    <t>banco.</t>
+  </si>
+  <si>
+    <t>Honorarios y gastos legales por redacción de préstamo sin importar el monto 
+del préstamo</t>
   </si>
   <si>
     <t>Tipo de contrato de préstamo</t>
@@ -1911,26 +1950,30 @@
     <t>Contrato sin garantía o con garantía solidaria</t>
   </si>
   <si>
-    <t>RD$1,500.00</t>
-  </si>
-  <si>
-    <t>Contrato con garantía de certificado financiero del</t>
-  </si>
-  <si>
-    <t>Contrato con garantía de certificado financiero de
-otro banco, certificado de inversión, bonos o
-certificados de almacén fiscal</t>
-  </si>
-  <si>
-    <t>Modificación contrato sin garantía o con garantía</t>
-  </si>
-  <si>
-    <t>Modificación contrato con garantía de certificado
-financiero de otro banco, certificado de inversión,
-bonos o certificado de almacén fiscal.</t>
-  </si>
-  <si>
-    <t>RD$1,500.00 honorarios +</t>
+    <t>RD$1,700.00</t>
+  </si>
+  <si>
+    <t>Contrato con garantía de certificado financiero del banco</t>
+  </si>
+  <si>
+    <t>Contrato con garantía de certificado financiero de otro 
+banco, certificado de inversión, bonos o certificados de 
+almacén fiscal</t>
+  </si>
+  <si>
+    <t>RD$2,200.00</t>
+  </si>
+  <si>
+    <t>Modificación contrato sin garantía o con garantía 
+solidaria</t>
+  </si>
+  <si>
+    <t>Modificación contrato con garantía de certificado 
+financiero de otro banco, certificado de inversión, bonos 
+o certificado de almacén fiscal.</t>
+  </si>
+  <si>
+    <t>RD$2,100.00 honorarios +</t>
   </si>
   <si>
     <t>Reestructuración de</t>
@@ -1957,19 +2000,22 @@
     <t>x tiempo en años = (resultado)</t>
   </si>
   <si>
-    <t>+ capital = (resultado) x 0.00784</t>
-  </si>
-  <si>
-    <t>Los honorarios y gastos legales por redacción del contrato de préstamo</t>
-  </si>
-  <si>
-    <t>quedarán detallados en la hoja de cálculo de honorarios y gastos legales</t>
-  </si>
-  <si>
-    <t>del banco la cual será entregada al cliente conjuntamente con el</t>
-  </si>
-  <si>
-    <t>contrato de préstamo.</t>
+    <t>+ capital = (resultado) x  0.00784</t>
+  </si>
+  <si>
+    <t>Los honorarios y gastos legales por redacción del contrato de</t>
+  </si>
+  <si>
+    <t>préstamo quedarán detallados en la hoja de cálculo de honorarios</t>
+  </si>
+  <si>
+    <t>y gastos legales del banco la cual será entregada al cliente</t>
+  </si>
+  <si>
+    <t>conjuntamente con el contrato de préstamo.</t>
+  </si>
+  <si>
+    <t>Tarifas entrarán en vigencia a partir del 2 de febrero 2017</t>
   </si>
 </sst>
 </file>
@@ -2497,1034 +2543,13 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.004624277456648" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42.64425" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="1" t="s"/>
-      <c r="C1" s="1" t="s"/>
-      <c r="D1" s="1" t="s"/>
-      <c r="E1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s"/>
-      <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s"/>
-    </row>
-    <row r="3" ht="28.429499999999997" customHeight="true">
-      <c r="A3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B3" s="1" t="s"/>
-      <c r="C3" s="1" t="s"/>
-      <c r="D3" s="1" t="s"/>
-      <c r="E3" s="1" t="s"/>
-    </row>
-    <row r="4" ht="28.429499999999997" customHeight="true">
-      <c r="A4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="1" t="s"/>
-      <c r="C4" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="1" t="s"/>
-    </row>
-    <row r="5" ht="28.429499999999997" customHeight="true">
-      <c r="A5" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B5" s="1" t="s"/>
-      <c r="C5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E5" s="1" t="s"/>
-    </row>
-    <row r="6" ht="28.429499999999997" customHeight="true">
-      <c r="A6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E6" s="1" t="s"/>
-    </row>
-    <row r="7" ht="28.429499999999997" customHeight="true">
-      <c r="A7" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="E7" s="1" t="s"/>
-    </row>
-    <row r="8" ht="42.64425" customHeight="true">
-      <c r="A8" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.5304</v>
-      </c>
-      <c r="E8" s="1" t="s"/>
-    </row>
-    <row r="9" ht="42.64425" customHeight="true">
-      <c r="A9" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="1" t="s"/>
-    </row>
-    <row r="10" ht="42.64425" customHeight="true">
-      <c r="A10" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="1" t="s"/>
-    </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
-      <c r="A11" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="E11" s="1" t="s"/>
-    </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
-      <c r="A12" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="1" t="s"/>
-    </row>
-    <row r="13" ht="28.429499999999997" customHeight="true">
-      <c r="A13" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E13" s="1" t="s"/>
-    </row>
-    <row r="14" ht="28.429499999999997" customHeight="true">
-      <c r="A14" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E14" s="1" t="s"/>
-    </row>
-    <row r="15" ht="42.64425" customHeight="true">
-      <c r="A15" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" s="1" t="s"/>
-    </row>
-    <row r="16" ht="28.429499999999997" customHeight="true">
-      <c r="A16" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B16" s="1" t="s"/>
-      <c r="C16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E16" s="1" t="s"/>
-    </row>
-    <row r="17" ht="42.64425" customHeight="true">
-      <c r="A17" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="1" t="s"/>
-    </row>
-    <row r="18" ht="28.429499999999997" customHeight="true">
-      <c r="A18" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" ht="28.429499999999997" customHeight="true">
-      <c r="A19" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C19" s="1" t="s"/>
-      <c r="D19" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E19" s="1" t="s"/>
-    </row>
-    <row r="20" ht="28.429499999999997" customHeight="true">
-      <c r="A20" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E20" s="1" t="s"/>
-    </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
-      <c r="A21" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C21" s="1" t="s"/>
-      <c r="D21" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="22" ht="28.429499999999997" customHeight="true">
-      <c r="A22" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C22" s="1" t="s"/>
-      <c r="D22" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E22" s="1" t="s"/>
-    </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
-      <c r="A23" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C23" s="1" t="s"/>
-      <c r="D23" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E23" s="1" t="s"/>
-    </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
-      <c r="A24" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" s="1" t="s"/>
-      <c r="D24" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
-      <c r="A25" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" s="1" t="s"/>
-      <c r="E25" s="1" t="s"/>
-    </row>
-    <row r="26" ht="28.429499999999997" customHeight="true">
-      <c r="A26" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="1" t="s"/>
-      <c r="D26" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E26" s="1" t="s"/>
-    </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
-      <c r="A27" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E27" s="1" t="s"/>
-    </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
-      <c r="A28" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="1" t="s"/>
-      <c r="D28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
-      <c r="A29" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s"/>
-      <c r="D29" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E29" s="1" t="s"/>
-    </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
-      <c r="A30" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B30" s="1" t="s"/>
-      <c r="C30" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E30" s="1" t="s"/>
-    </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
-      <c r="A31" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C31" s="1" t="s"/>
-      <c r="D31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
-      <c r="A32" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C32" s="1" t="s"/>
-      <c r="D32" s="1" t="s"/>
-      <c r="E32" s="1" t="s"/>
-    </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
-      <c r="A33" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D33" s="1" t="s"/>
-      <c r="E33" s="1" t="s"/>
-    </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
-      <c r="A34" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C34" s="1" t="s"/>
-      <c r="D34" s="1" t="s"/>
-      <c r="E34" s="5">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="35" ht="14.214749999999999" customHeight="true"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.80120423892099" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.004624277456648" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="42.64425" customHeight="true">
-      <c r="A1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
-      <c r="A2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s"/>
-      <c r="D2" s="1" t="s"/>
-      <c r="E2" s="1" t="s"/>
-    </row>
-    <row r="3" ht="28.429499999999997" customHeight="true">
-      <c r="A3" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
-      <c r="D3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="1" t="s"/>
-    </row>
-    <row r="4" ht="28.429499999999997" customHeight="true">
-      <c r="A4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="1" t="s"/>
-    </row>
-    <row r="5" ht="28.429499999999997" customHeight="true">
-      <c r="A5" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B5" s="1" t="s"/>
-      <c r="C5" s="1" t="s"/>
-      <c r="D5" s="1" t="s"/>
-      <c r="E5" s="5">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="6" ht="28.429499999999997" customHeight="true">
-      <c r="A6" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="1" t="s"/>
-      <c r="D6" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="1" t="s"/>
-    </row>
-    <row r="7" ht="28.429499999999997" customHeight="true">
-      <c r="A7" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E7" s="1" t="s"/>
-    </row>
-    <row r="8" ht="42.64425" customHeight="true">
-      <c r="A8" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="1" t="s"/>
-      <c r="D8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="9" ht="42.64425" customHeight="true">
-      <c r="A9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C9" s="1" t="s"/>
-      <c r="D9" s="1" t="s"/>
-      <c r="E9" s="1" t="s"/>
-    </row>
-    <row r="10" ht="42.64425" customHeight="true">
-      <c r="A10" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E10" s="1" t="s"/>
-    </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
-      <c r="A11" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="1" t="s"/>
-      <c r="D11" s="1" t="s"/>
-      <c r="E11" s="5">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
-      <c r="A12" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" s="1" t="s"/>
-      <c r="C12" s="1" t="s"/>
-      <c r="D12" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E12" s="1" t="s"/>
-    </row>
-    <row r="13" ht="28.429499999999997" customHeight="true">
-      <c r="A13" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="1" t="s"/>
-    </row>
-    <row r="14" ht="28.429499999999997" customHeight="true">
-      <c r="A14" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="1" t="s"/>
-      <c r="D14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="15" ht="42.64425" customHeight="true">
-      <c r="A15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s"/>
-      <c r="D15" s="1" t="s"/>
-      <c r="E15" s="1" t="s"/>
-    </row>
-    <row r="16" ht="28.429499999999997" customHeight="true">
-      <c r="A16" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D16" s="1" t="s"/>
-      <c r="E16" s="1" t="s"/>
-    </row>
-    <row r="17" ht="42.64425" customHeight="true">
-      <c r="A17" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="1" t="s"/>
-      <c r="D17" s="1" t="s"/>
-      <c r="E17" s="5">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="18" ht="28.429499999999997" customHeight="true">
-      <c r="A18" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s"/>
-      <c r="D18" s="1" t="s"/>
-      <c r="E18" s="1" t="s"/>
-    </row>
-    <row r="19" ht="28.429499999999997" customHeight="true">
-      <c r="A19" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" s="1" t="s"/>
-      <c r="E19" s="1" t="s"/>
-    </row>
-    <row r="20" ht="28.429499999999997" customHeight="true">
-      <c r="A20" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="1" t="s"/>
-    </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
-      <c r="A21" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E21" s="1" t="s"/>
-    </row>
-    <row r="22" ht="28.429499999999997" customHeight="true">
-      <c r="A22" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="1" t="s"/>
-      <c r="D22" s="1" t="s"/>
-      <c r="E22" s="1" t="s"/>
-    </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
-      <c r="A23" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D23" s="1" t="s"/>
-      <c r="E23" s="1" t="s"/>
-    </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
-      <c r="A24" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E24" s="1" t="s"/>
-    </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
-      <c r="A25" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" s="2">
-        <v>100</v>
-      </c>
-      <c r="E25" s="1" t="s"/>
-    </row>
-    <row r="26" ht="28.429499999999997" customHeight="true">
-      <c r="A26" s="1" t="s"/>
-      <c r="B26" s="1" t="s"/>
-      <c r="C26" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D26" s="2">
-        <v>100</v>
-      </c>
-      <c r="E26" s="1" t="s"/>
-    </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
-      <c r="A27" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B27" s="1" t="s"/>
-      <c r="C27" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D27" s="2">
-        <v>200</v>
-      </c>
-      <c r="E27" s="1" t="s"/>
-    </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
-      <c r="A28" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B28" s="1" t="s"/>
-      <c r="C28" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D28" s="2">
-        <v>300</v>
-      </c>
-      <c r="E28" s="1" t="s"/>
-    </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
-      <c r="A29" s="1" t="s"/>
-      <c r="B29" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D29" s="2">
-        <v>300</v>
-      </c>
-      <c r="E29" s="1" t="s"/>
-    </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
-      <c r="A30" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="1" t="s"/>
-      <c r="C30" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D30" s="2">
-        <v>400</v>
-      </c>
-      <c r="E30" s="1" t="s"/>
-    </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
-      <c r="A31" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C31" s="1" t="s"/>
-      <c r="D31" s="1" t="s"/>
-      <c r="E31" s="1" t="s"/>
-    </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
-      <c r="A32" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D32" s="1" t="s"/>
-      <c r="E32" s="1" t="s"/>
-    </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
-      <c r="A33" s="1" t="s"/>
-      <c r="B33" s="1" t="s"/>
-      <c r="C33" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E33" s="1" t="s"/>
-    </row>
-    <row r="34" ht="28.429499999999997" customHeight="true">
-      <c r="A34" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E34" s="1" t="s"/>
-    </row>
-    <row r="35" ht="42.64425" customHeight="true">
-      <c r="A35" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E35" s="1" t="s"/>
-    </row>
-    <row r="36" ht="28.429499999999997" customHeight="true">
-      <c r="A36" s="1" t="s"/>
-      <c r="B36" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E36" s="1" t="s"/>
-    </row>
-    <row r="37" ht="14.214749999999999" customHeight="true"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C23:D23"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.80120423892099" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.516859344894026" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
       <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s"/>
       <c r="D1" s="1" t="s"/>
@@ -3534,14 +2559,14 @@
       <c r="A2" s="1" t="s"/>
       <c r="B2" s="1" t="s"/>
       <c r="C2" s="1" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="D2" s="1" t="s"/>
       <c r="E2" s="1" t="s"/>
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>425</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1" t="s"/>
       <c r="C3" s="1" t="s"/>
@@ -3552,55 +2577,55 @@
       <c r="A4" s="1" t="s"/>
       <c r="B4" s="1" t="s"/>
       <c r="C4" s="1" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="D4" s="1" t="s"/>
       <c r="E4" s="1" t="s"/>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="D5" s="1" t="s"/>
       <c r="E5" s="1" t="s"/>
     </row>
     <row r="6" ht="28.429499999999997" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="D6" s="1" t="s"/>
       <c r="E6" s="1" t="s"/>
     </row>
     <row r="7" ht="28.429499999999997" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
       <c r="B7" s="1" t="s"/>
       <c r="C7" s="1" t="s"/>
       <c r="D7" s="1" t="s"/>
       <c r="E7" s="1" t="s"/>
     </row>
-    <row r="8" ht="42.64425" customHeight="true">
+    <row r="8" ht="28.429499999999997" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="D8" s="1" t="s"/>
       <c r="E8" s="1" t="s"/>
@@ -3609,22 +2634,22 @@
       <c r="A9" s="1" t="s"/>
       <c r="B9" s="1" t="s"/>
       <c r="C9" s="1" t="s">
-        <v>433</v>
+        <v>344</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="E9" s="1" t="s"/>
     </row>
     <row r="10" ht="42.64425" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>431</v>
+        <v>342</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="D10" s="2">
         <v>100</v>
@@ -3633,13 +2658,13 @@
     </row>
     <row r="11" ht="14.214749999999999" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="D11" s="2">
         <v>100</v>
@@ -3648,13 +2673,13 @@
     </row>
     <row r="12" ht="14.214749999999999" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>435</v>
+        <v>346</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="D12" s="2">
         <v>100</v>
@@ -3663,13 +2688,13 @@
     </row>
     <row r="13" ht="28.429499999999997" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>410</v>
+        <v>321</v>
       </c>
       <c r="D13" s="2">
         <v>200</v>
@@ -3678,13 +2703,13 @@
     </row>
     <row r="14" ht="28.429499999999997" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="D14" s="2">
         <v>300</v>
@@ -3693,13 +2718,13 @@
     </row>
     <row r="15" ht="42.64425" customHeight="true">
       <c r="A15" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="D15" s="2">
         <v>300</v>
@@ -3708,13 +2733,13 @@
     </row>
     <row r="16" ht="28.429499999999997" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>437</v>
+        <v>348</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="D16" s="2">
         <v>300</v>
@@ -3723,11 +2748,11 @@
     </row>
     <row r="17" ht="42.64425" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="B17" s="1" t="s"/>
       <c r="C17" s="1" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="D17" s="2">
         <v>400</v>
@@ -3736,10 +2761,10 @@
     </row>
     <row r="18" ht="28.429499999999997" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="C18" s="1" t="s"/>
       <c r="D18" s="1" t="s"/>
@@ -3747,81 +2772,81 @@
     </row>
     <row r="19" ht="28.429499999999997" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>440</v>
+        <v>352</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>441</v>
+        <v>353</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>442</v>
+        <v>354</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>444</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" ht="28.429499999999997" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>445</v>
+        <v>357</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>446</v>
+        <v>358</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>447</v>
+        <v>359</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" ht="42.64425" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>449</v>
+        <v>362</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>451</v>
+        <v>364</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>453</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" ht="28.429499999999997" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="B22" s="5">
         <v>0.06</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>457</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" ht="28.429499999999997" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="B23" s="5">
         <v>0.03</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>129</v>
@@ -3834,68 +2859,68 @@
       <c r="A24" s="1" t="s"/>
       <c r="B24" s="1" t="s"/>
       <c r="C24" s="1" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>462</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" ht="28.429499999999997" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>463</v>
+        <v>376</v>
       </c>
       <c r="B25" s="1" t="s"/>
       <c r="C25" s="1" t="s">
-        <v>464</v>
+        <v>377</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" ht="28.429499999999997" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>448</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" ht="42.64425" customHeight="true">
       <c r="A27" s="1" t="s">
-        <v>468</v>
+        <v>381</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" ht="14.214749999999999" customHeight="true">
       <c r="A28" s="1" t="s"/>
       <c r="B28" s="1" t="s">
-        <v>472</v>
+        <v>385</v>
       </c>
       <c r="C28" s="1" t="s"/>
       <c r="D28" s="1" t="s"/>
@@ -3905,33 +2930,33 @@
       <c r="A29" s="1" t="s"/>
       <c r="B29" s="1" t="s"/>
       <c r="C29" s="1" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="D29" s="1" t="s"/>
       <c r="E29" s="1" t="s">
-        <v>474</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" ht="14.214749999999999" customHeight="true">
       <c r="A30" s="1" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="C30" s="1" t="s"/>
       <c r="D30" s="1" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="E30" s="1" t="s"/>
     </row>
     <row r="31" ht="14.214749999999999" customHeight="true">
       <c r="A31" s="1" t="s"/>
       <c r="B31" s="1" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="D31" s="1" t="s"/>
       <c r="E31" s="2">
@@ -3940,7 +2965,7 @@
     </row>
     <row r="32" ht="14.214749999999999" customHeight="true">
       <c r="A32" s="1" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>123</v>
@@ -3951,7 +2976,7 @@
     </row>
     <row r="33" ht="14.214749999999999" customHeight="true">
       <c r="A33" s="1" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>123</v>
@@ -3962,10 +2987,10 @@
     </row>
     <row r="34" ht="28.429499999999997" customHeight="true">
       <c r="A34" s="1" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="C34" s="1" t="s"/>
       <c r="D34" s="1" t="s"/>
@@ -3991,7 +3016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4010,7 +3035,7 @@
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="B1" s="1" t="s"/>
     </row>
@@ -4022,13 +3047,13 @@
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="B3" s="1" t="s"/>
     </row>
     <row r="4" ht="28.429499999999997" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>123</v>
@@ -4036,31 +3061,31 @@
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" ht="28.429499999999997" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" ht="28.429499999999997" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" ht="42.64425" customHeight="true">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>125</v>
@@ -4068,7 +3093,7 @@
     </row>
     <row r="9" ht="42.64425" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>490</v>
+        <v>403</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>86</v>
@@ -4076,7 +3101,7 @@
     </row>
     <row r="10" ht="42.64425" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>491</v>
+        <v>404</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>86</v>
@@ -4084,7 +3109,7 @@
     </row>
     <row r="11" ht="14.214749999999999" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>492</v>
+        <v>405</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>191</v>
@@ -4092,7 +3117,7 @@
     </row>
     <row r="12" ht="14.214749999999999" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>493</v>
+        <v>406</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>191</v>
@@ -4100,21 +3125,21 @@
     </row>
     <row r="13" ht="28.429499999999997" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>494</v>
+        <v>407</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" ht="28.429499999999997" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>495</v>
+        <v>408</v>
       </c>
       <c r="B14" s="1" t="s"/>
     </row>
     <row r="15" ht="42.64425" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>496</v>
+        <v>409</v>
       </c>
       <c r="B15" s="1" t="s"/>
     </row>
@@ -4123,6 +3148,639 @@
   <mergeCells count="2">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.80120423892099" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42.64425" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+      <c r="C1" s="1" t="s"/>
+      <c r="D1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s"/>
+    </row>
+    <row r="3" ht="28.429499999999997" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="1" t="s"/>
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s"/>
+    </row>
+    <row r="4" ht="28.429499999999997" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="1" t="s"/>
+      <c r="C4" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="1" t="s"/>
+    </row>
+    <row r="5" ht="28.429499999999997" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="1" t="s"/>
+      <c r="C5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" ht="28.429499999999997" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="1" t="s"/>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" ht="42.64425" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" ht="42.64425" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" s="1" t="s"/>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" ht="28.429499999999997" customHeight="true">
+      <c r="A13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" s="1" t="s"/>
+    </row>
+    <row r="14" ht="28.429499999999997" customHeight="true">
+      <c r="A14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" ht="42.64425" customHeight="true">
+      <c r="A15" s="1" t="s"/>
+      <c r="B15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s"/>
+    </row>
+    <row r="16" ht="28.429499999999997" customHeight="true">
+      <c r="A16" s="1" t="s"/>
+      <c r="B16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="1" t="s"/>
+      <c r="D16" s="1" t="s"/>
+    </row>
+    <row r="17" ht="42.64425" customHeight="true">
+      <c r="A17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="1" t="s"/>
+      <c r="C17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" ht="28.429499999999997" customHeight="true">
+      <c r="A18" s="1" t="s"/>
+      <c r="B18" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="1" t="s"/>
+      <c r="D18" s="1" t="s"/>
+    </row>
+    <row r="19" ht="28.429499999999997" customHeight="true">
+      <c r="A19" s="1" t="s"/>
+      <c r="B19" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s"/>
+    </row>
+    <row r="20" ht="28.429499999999997" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B20" s="1" t="s"/>
+      <c r="C20" s="1" t="s"/>
+      <c r="D20" s="1" t="s"/>
+    </row>
+    <row r="21" ht="42.64425" customHeight="true">
+      <c r="A21" s="1" t="s"/>
+      <c r="B21" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
+      <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="28.429499999999997" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B22" s="1" t="s"/>
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s"/>
+    </row>
+    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" ht="28.429499999999997" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" ht="28.429499999999997" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" ht="42.64425" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" ht="28.429499999999997" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" ht="28.429499999999997" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" ht="42.64425" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B31" s="1" t="s"/>
+      <c r="C31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s"/>
+      <c r="B32" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s"/>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s"/>
+      <c r="B33" s="1" t="s"/>
+      <c r="C33" s="1" t="s"/>
+      <c r="D33" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="34" ht="28.429499999999997" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D34" s="1" t="s"/>
+    </row>
+    <row r="35" ht="42.64425" customHeight="true">
+      <c r="A35" s="1" t="s"/>
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="1" t="s"/>
+      <c r="D35" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" ht="28.429499999999997" customHeight="true">
+      <c r="A36" s="1" t="s"/>
+      <c r="B36" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="1" t="s"/>
+      <c r="D36" s="1" t="s"/>
+    </row>
+    <row r="37" ht="14.214749999999999" customHeight="true">
+      <c r="A37" s="1" t="s"/>
+      <c r="B37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D37" s="1" t="s"/>
+    </row>
+    <row r="38" ht="14.214749999999999" customHeight="true">
+      <c r="A38" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B38" s="1" t="s"/>
+      <c r="C38" s="1" t="s"/>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" ht="14.214749999999999" customHeight="true">
+      <c r="A39" s="1" t="s"/>
+      <c r="B39" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D39" s="1" t="s"/>
+    </row>
+    <row r="40" ht="14.214749999999999" customHeight="true">
+      <c r="A40" s="1" t="s"/>
+      <c r="B40" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40" s="1" t="s"/>
+      <c r="D40" s="1" t="s"/>
+    </row>
+    <row r="41" ht="14.214749999999999" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="75.80120423892099" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42.64425" customHeight="true">
+      <c r="A1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" ht="28.429499999999997" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" ht="28.429499999999997" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="1" t="s"/>
+      <c r="C3" s="1" t="s"/>
+      <c r="D3" s="1" t="s"/>
+    </row>
+    <row r="4" ht="28.429499999999997" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="1" t="s"/>
+      <c r="C4" s="1" t="s"/>
+      <c r="D4" s="1" t="s"/>
+    </row>
+    <row r="5" ht="28.429499999999997" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="1" t="s"/>
+      <c r="D5" s="1" t="s"/>
+    </row>
+    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s"/>
+    </row>
+    <row r="7" ht="28.429499999999997" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C7" s="1" t="s"/>
+      <c r="D7" s="1" t="s"/>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C8" s="1" t="s"/>
+      <c r="D8" s="1" t="s"/>
+    </row>
+    <row r="9" ht="42.64425" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" s="1" t="s"/>
+      <c r="C9" s="1" t="s"/>
+      <c r="D9" s="1" t="s"/>
+    </row>
+    <row r="10" ht="42.64425" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="1" t="s"/>
+      <c r="C10" s="1" t="s"/>
+      <c r="D10" s="1" t="s"/>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B11" s="1" t="s"/>
+      <c r="C11" s="1" t="s"/>
+      <c r="D11" s="1" t="s"/>
+    </row>
+    <row r="12" ht="14.214749999999999" customHeight="true">
+      <c r="A12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="1" t="s"/>
+      <c r="C12" s="1" t="s"/>
+      <c r="D12" s="1" t="s"/>
+    </row>
+    <row r="13" ht="28.429499999999997" customHeight="true"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4157,7 +3815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    <row r="2" ht="28.429499999999997" customHeight="true">
       <c r="A2" s="1" t="s"/>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -4166,18 +3824,18 @@
     <row r="3" ht="28.429499999999997" customHeight="true">
       <c r="A3" s="1" t="s"/>
       <c r="B3" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" ht="28.429499999999997" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B4" s="1" t="s"/>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B5" s="5">
         <v>0.05</v>
@@ -4185,21 +3843,21 @@
     </row>
     <row r="6" ht="28.429499999999997" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" ht="42.64425" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" ht="42.64425" customHeight="true">
+    <row r="8" ht="28.429499999999997" customHeight="true">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -4225,7 +3883,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4235,91 +3893,89 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.55009633911368" customWidth="1"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="100.10520231213873" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
-      <c r="A1" s="1" t="s"/>
+      <c r="A1" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="B1" s="1" t="s"/>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C1" s="1" t="s"/>
       <c r="D1" s="1" t="s"/>
     </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
-      <c r="A2" s="1" t="s"/>
+    <row r="2" ht="28.429499999999997" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="1" t="s"/>
       <c r="D2" s="1" t="s"/>
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
-      <c r="A3" s="1" t="s"/>
+      <c r="A3" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="B3" s="1" t="s"/>
-      <c r="C3" s="1" t="s">
-        <v>502</v>
-      </c>
+      <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s"/>
     </row>
     <row r="4" ht="28.429499999999997" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s"/>
       <c r="C4" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D4" s="1" t="s"/>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B5" s="1" t="s"/>
       <c r="C5" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="D5" s="1" t="s"/>
     </row>
     <row r="6" ht="28.429499999999997" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>316</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" ht="42.64425" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>452</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="D7" s="1" t="s"/>
     </row>
     <row r="8" ht="42.64425" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>129</v>
@@ -4327,25 +3983,25 @@
     </row>
     <row r="9" ht="42.64425" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D9" s="1" t="s"/>
     </row>
     <row r="10" ht="42.64425" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>129</v>
@@ -4353,13 +4009,13 @@
     </row>
     <row r="11" ht="14.214749999999999" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>129</v>
@@ -4367,25 +4023,25 @@
     </row>
     <row r="12" ht="14.214749999999999" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" ht="28.429499999999997" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B13" s="1" t="s"/>
       <c r="C13" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>191</v>
@@ -4393,27 +4049,27 @@
     </row>
     <row r="14" ht="28.429499999999997" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>305</v>
+        <v>474</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" ht="42.64425" customHeight="true">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" ht="56.858999999999995" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>311</v>
+        <v>480</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>226</v>
@@ -4421,13 +4077,13 @@
     </row>
     <row r="16" ht="28.429499999999997" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>314</v>
+        <v>484</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>191</v>
@@ -4435,13 +4091,13 @@
     </row>
     <row r="17" ht="42.64425" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>317</v>
+        <v>485</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>316</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>104</v>
@@ -4449,7 +4105,7 @@
     </row>
     <row r="18" ht="28.429499999999997" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>104</v>
@@ -4459,26 +4115,21 @@
     </row>
     <row r="19" ht="28.429499999999997" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B19" s="1" t="s"/>
       <c r="C19" s="1" t="s"/>
       <c r="D19" s="1" t="s"/>
     </row>
-    <row r="20" ht="28.429499999999997" customHeight="true">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s"/>
-      <c r="C20" s="1" t="s"/>
-      <c r="D20" s="1" t="s"/>
-    </row>
-    <row r="21" ht="42.64425" customHeight="true"/>
+    <row r="20" ht="28.429499999999997" customHeight="true"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4495,7 +4146,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4505,17 +4156,17 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="81.55009633911368" customWidth="1"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="100.10520231213873" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
       <c r="C1" s="1" t="s"/>
     </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    <row r="2" ht="28.429499999999997" customHeight="true">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4524,21 +4175,21 @@
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B3" s="1" t="s"/>
       <c r="C3" s="1" t="s"/>
     </row>
     <row r="4" ht="28.429499999999997" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B4" s="1" t="s"/>
       <c r="C4" s="1" t="s"/>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B5" s="1" t="s"/>
       <c r="C5" s="1" t="s"/>
@@ -4546,19 +4197,19 @@
     <row r="6" ht="28.429499999999997" customHeight="true">
       <c r="A6" s="1" t="s"/>
       <c r="B6" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C6" s="1" t="s"/>
     </row>
     <row r="7" ht="42.64425" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" ht="42.64425" customHeight="true">
@@ -4638,12 +4289,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="15" ht="42.64425" customHeight="true">
+    <row r="15" ht="56.858999999999995" customHeight="true">
       <c r="A15" s="7">
         <v>15000001</v>
       </c>
       <c r="B15" s="7">
-        <v>20000000</v>
+        <v>200000000</v>
       </c>
       <c r="C15" s="3">
         <v>0.003</v>
@@ -4676,7 +4327,7 @@
         <v>50000001</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C18" s="7">
         <v>100000</v>
@@ -4685,142 +4336,117 @@
     <row r="19" ht="28.429499999999997" customHeight="true">
       <c r="A19" s="1" t="s"/>
       <c r="B19" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C19" s="1" t="s"/>
     </row>
     <row r="20" ht="28.429499999999997" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C20" s="1" t="s"/>
     </row>
-    <row r="21" ht="42.64425" customHeight="true">
+    <row r="21" ht="56.858999999999995" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B21" s="1" t="s"/>
+        <v>548</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>549</v>
+      </c>
       <c r="C21" s="1" t="s"/>
     </row>
-    <row r="22" ht="28.429499999999997" customHeight="true">
+    <row r="22" ht="56.858999999999995" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="23" ht="28.429499999999997" customHeight="true">
+        <v>551</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+    </row>
+    <row r="23" ht="42.64425" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C23" s="1" t="s"/>
     </row>
     <row r="24" ht="28.429499999999997" customHeight="true">
-      <c r="A24" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B24" s="1" t="s"/>
+      <c r="A24" s="1" t="s"/>
+      <c r="B24" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="C24" s="1" t="s"/>
     </row>
-    <row r="25" ht="56.858999999999995" customHeight="true">
+    <row r="25" ht="28.429499999999997" customHeight="true">
       <c r="A25" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" ht="42.64425" customHeight="true">
+        <v>556</v>
+      </c>
+      <c r="C25" s="1" t="s"/>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
       <c r="A26" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C26" s="1" t="s"/>
     </row>
     <row r="27" ht="42.64425" customHeight="true">
-      <c r="A27" s="1" t="s"/>
+      <c r="A27" s="1" t="s">
+        <v>559</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="C27" s="1" t="s"/>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" ht="28.429499999999997" customHeight="true">
       <c r="A28" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C28" s="1" t="s"/>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
+    <row r="29" ht="42.64425" customHeight="true">
       <c r="A29" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C29" s="1" t="s"/>
     </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
-      <c r="A30" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C30" s="1" t="s"/>
-    </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
-      <c r="A31" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B31" s="1" t="s"/>
-      <c r="C31" s="1" t="s"/>
-    </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
-      <c r="A32" s="1" t="s"/>
-      <c r="B32" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C32" s="1" t="s"/>
-    </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s"/>
-      <c r="C33" s="1" t="s"/>
-    </row>
-    <row r="34" ht="28.429499999999997" customHeight="true"/>
+    <row r="30" ht="42.64425" customHeight="true"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4837,7 +4463,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4845,205 +4471,224 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="126.80447976878612" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="118.59715799614642" customWidth="1"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="1" t="s">
-        <v>546</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="B1" s="1" t="s"/>
+    </row>
+    <row r="2" ht="28.429499999999997" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="1" t="s"/>
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
-      <c r="A3" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B3" s="1" t="s"/>
+      <c r="A3" s="1" t="s"/>
+      <c r="B3" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="4" ht="28.429499999999997" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B4" s="1" t="s"/>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>568</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="B5" s="1" t="s"/>
     </row>
     <row r="6" ht="28.429499999999997" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" ht="42.64425" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B7" s="1" t="s"/>
+        <v>566</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="8" ht="42.64425" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" ht="42.64425" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>572</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="B9" s="1" t="s"/>
     </row>
     <row r="10" ht="42.64425" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" ht="71.07374999999999" customHeight="true">
+        <v>575</v>
+      </c>
+      <c r="B10" s="1" t="s"/>
+    </row>
+    <row r="11" ht="14.214749999999999" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B11" s="1" t="s"/>
     </row>
     <row r="12" ht="14.214749999999999" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B12" s="1" t="s"/>
     </row>
     <row r="13" ht="28.429499999999997" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B13" s="1" t="s"/>
     </row>
     <row r="14" ht="28.429499999999997" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B14" s="1" t="s"/>
     </row>
-    <row r="15" ht="42.64425" customHeight="true">
+    <row r="15" ht="56.858999999999995" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B15" s="1" t="s"/>
     </row>
     <row r="16" ht="28.429499999999997" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B16" s="1" t="s"/>
     </row>
     <row r="17" ht="42.64425" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B17" s="1" t="s"/>
     </row>
     <row r="18" ht="28.429499999999997" customHeight="true">
       <c r="A18" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B18" s="1" t="s"/>
     </row>
     <row r="19" ht="28.429499999999997" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B19" s="1" t="s"/>
     </row>
     <row r="20" ht="28.429499999999997" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B20" s="1" t="s"/>
     </row>
-    <row r="21" ht="42.64425" customHeight="true">
+    <row r="21" ht="56.858999999999995" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B21" s="1" t="s"/>
     </row>
-    <row r="22" ht="28.429499999999997" customHeight="true">
+    <row r="22" ht="56.858999999999995" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B22" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="23" ht="28.429499999999997" customHeight="true">
+      <c r="B22" s="1" t="s"/>
+    </row>
+    <row r="23" ht="42.64425" customHeight="true">
       <c r="A23" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="B23" s="1" t="s"/>
     </row>
     <row r="24" ht="28.429499999999997" customHeight="true">
       <c r="A24" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B24" s="1" t="s"/>
+    </row>
+    <row r="25" ht="28.429499999999997" customHeight="true">
+      <c r="A25" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="25" ht="56.858999999999995" customHeight="true">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s"/>
+    </row>
+    <row r="26" ht="28.429499999999997" customHeight="true">
+      <c r="A26" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" ht="42.64425" customHeight="true">
-      <c r="A26" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="B26" s="1" t="s"/>
     </row>
     <row r="27" ht="42.64425" customHeight="true">
       <c r="A27" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
-      <c r="A28" s="2">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s"/>
-    </row>
-    <row r="29" ht="14.214749999999999" customHeight="true"/>
+    </row>
+    <row r="28" ht="28.429499999999997" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="29" ht="42.64425" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" ht="42.64425" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" ht="28.429499999999997" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" ht="42.64425" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -5055,7 +4700,11 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5080,81 +4729,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="126.80447976878612" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="118.59715799614642" customWidth="1"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
       <c r="A1" s="1" t="s"/>
       <c r="B1" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="2" ht="28.429499999999997" customHeight="true">
       <c r="A2" s="1" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" ht="28.429499999999997" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" ht="28.429499999999997" customHeight="true">
       <c r="A6" s="1" t="s"/>
       <c r="B6" s="1" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" ht="42.64425" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="B7" s="1" t="s"/>
     </row>
     <row r="8" ht="42.64425" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B8" s="1" t="s"/>
     </row>
     <row r="9" ht="42.64425" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B9" s="1" t="s"/>
     </row>
     <row r="10" ht="42.64425" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="B10" s="1" t="s"/>
     </row>
-    <row r="11" ht="71.07374999999999" customHeight="true">
-      <c r="A11" s="2">
-        <v>3</v>
+    <row r="11" ht="14.214749999999999" customHeight="true">
+      <c r="A11" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="B11" s="1" t="s"/>
     </row>
@@ -6856,7 +6505,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6868,15 +6517,17 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.004624277456648" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s"/>
       <c r="C1" s="1" t="s"/>
       <c r="D1" s="1" t="s"/>
+      <c r="E1" s="1" t="s"/>
     </row>
     <row r="2" ht="14.214749999999999" customHeight="true">
       <c r="A2" s="1" t="s">
@@ -6885,16 +6536,18 @@
       <c r="B2" s="1" t="s"/>
       <c r="C2" s="1" t="s"/>
       <c r="D2" s="1" t="s"/>
+      <c r="E2" s="1" t="s"/>
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s"/>
       <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s"/>
-    </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+      <c r="E3" s="1" t="s"/>
+    </row>
+    <row r="4" ht="28.429499999999997" customHeight="true">
       <c r="A4" s="1" t="s">
         <v>241</v>
       </c>
@@ -6902,155 +6555,186 @@
       <c r="C4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="1" t="s"/>
+      <c r="D4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="1" t="s"/>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="1" t="s"/>
       <c r="C5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="D5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1" t="s"/>
+    </row>
+    <row r="6" ht="14.214749999999999" customHeight="true">
       <c r="A6" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="D6" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="1" t="s"/>
     </row>
     <row r="7" ht="28.429499999999997" customHeight="true">
       <c r="A7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="E7" s="1" t="s"/>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
+      <c r="A8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="1" t="s"/>
-    </row>
-    <row r="8" ht="42.64425" customHeight="true">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="D8" s="3">
+        <v>0.5304</v>
+      </c>
+      <c r="E8" s="1" t="s"/>
     </row>
     <row r="9" ht="42.64425" customHeight="true">
       <c r="A9" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="1" t="s"/>
     </row>
     <row r="10" ht="42.64425" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="1" t="s"/>
+        <v>258</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="1" t="s"/>
     </row>
     <row r="11" ht="14.214749999999999" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="1" t="s"/>
+        <v>259</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="E11" s="1" t="s"/>
     </row>
     <row r="12" ht="14.214749999999999" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="1" t="s"/>
     </row>
     <row r="13" ht="28.429499999999997" customHeight="true">
       <c r="A13" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="1" t="s"/>
+      <c r="E13" s="1" t="s"/>
     </row>
     <row r="14" ht="28.429499999999997" customHeight="true">
       <c r="A14" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s"/>
+    </row>
+    <row r="15" ht="42.64425" customHeight="true">
+      <c r="A15" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="15" ht="42.64425" customHeight="true">
-      <c r="A15" s="1" t="s"/>
       <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="1" t="s"/>
-      <c r="D15" s="1" t="s"/>
+      <c r="D15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="1" t="s"/>
     </row>
     <row r="16" ht="28.429499999999997" customHeight="true">
       <c r="A16" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1" t="s"/>
+      <c r="C16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C16" s="1" t="s"/>
-      <c r="D16" s="1" t="s"/>
+      <c r="E16" s="1" t="s"/>
     </row>
     <row r="17" ht="42.64425" customHeight="true">
       <c r="A17" s="1" t="s">
@@ -7063,84 +6747,95 @@
         <v>274</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E17" s="1" t="s"/>
     </row>
     <row r="18" ht="28.429499999999997" customHeight="true">
-      <c r="A18" s="1" t="s"/>
+      <c r="A18" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="1" t="s"/>
-      <c r="D18" s="1" t="s"/>
-    </row>
-    <row r="19" ht="28.429499999999997" customHeight="true">
+        <v>276</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
       <c r="A19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" s="1" t="s"/>
-      <c r="C19" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
       <c r="D19" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E19" s="1" t="s"/>
     </row>
     <row r="20" ht="28.429499999999997" customHeight="true">
       <c r="A20" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E20" s="1" t="s"/>
     </row>
     <row r="21" ht="14.214749999999999" customHeight="true">
       <c r="A21" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C21" s="1" t="s"/>
       <c r="D21" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+        <v>192</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="22" ht="28.429499999999997" customHeight="true">
       <c r="A22" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
       <c r="D22" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="E22" s="1" t="s"/>
     </row>
     <row r="23" ht="14.214749999999999" customHeight="true">
       <c r="A23" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="C23" s="1" t="s"/>
       <c r="D23" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="E23" s="1" t="s"/>
     </row>
     <row r="24" ht="14.214749999999999" customHeight="true">
       <c r="A24" s="1" t="s">
@@ -7149,56 +6844,160 @@
       <c r="B24" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="C24" s="1" t="s"/>
       <c r="D24" s="1" t="s">
-        <v>293</v>
+        <v>192</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.96</v>
       </c>
     </row>
     <row r="25" ht="14.214749999999999" customHeight="true">
       <c r="A25" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="1" t="s"/>
+      <c r="E25" s="1" t="s"/>
+    </row>
+    <row r="26" ht="14.214749999999999" customHeight="true">
+      <c r="A26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="1" t="s"/>
+      <c r="D26" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E26" s="1" t="s"/>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E27" s="1" t="s"/>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="1" t="s"/>
+      <c r="D28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="29" ht="14.214749999999999" customHeight="true">
+      <c r="A29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="1" t="s"/>
+      <c r="D29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="1" t="s"/>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B30" s="1" t="s"/>
+      <c r="C30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" s="1" t="s"/>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" ht="28.429499999999997" customHeight="true">
-      <c r="A26" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="1" t="s"/>
+      <c r="D32" s="1" t="s"/>
+      <c r="E32" s="1" t="s"/>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s"/>
-      <c r="C27" s="1" t="s"/>
-      <c r="D27" s="1" t="s"/>
-    </row>
-    <row r="28" ht="14.214749999999999" customHeight="true"/>
+      <c r="B33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="1" t="s"/>
+      <c r="E33" s="1" t="s"/>
+    </row>
+    <row r="34" ht="14.214749999999999" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="1" t="s"/>
+      <c r="D34" s="1" t="s"/>
+      <c r="E34" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="35" ht="14.214749999999999" customHeight="true"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A27:D27"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7215,7 +7014,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -7227,208 +7026,490 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="76.53020231213873" customWidth="1"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="91.48795761078998" customWidth="1"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="59.36440269749518" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.004624277456648" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.64425" customHeight="true">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>302</v>
+        <v>264</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" ht="14.214749999999999" customHeight="true">
       <c r="A2" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="1" t="s"/>
-      <c r="C2" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.06</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s"/>
+      <c r="D2" s="1" t="s"/>
+      <c r="E2" s="1" t="s"/>
     </row>
     <row r="3" ht="28.429499999999997" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
       <c r="D3" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
-      <c r="A4" s="1" t="s"/>
+        <v>300</v>
+      </c>
+      <c r="E3" s="1" t="s"/>
+    </row>
+    <row r="4" ht="28.429499999999997" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="1" t="s"/>
-      <c r="D4" s="1" t="s"/>
+        <v>276</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="1" t="s"/>
     </row>
     <row r="5" ht="28.429499999999997" customHeight="true">
-      <c r="A5" s="1" t="s"/>
-      <c r="B5" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="1" t="s"/>
+      <c r="C5" s="1" t="s"/>
       <c r="D5" s="1" t="s"/>
-    </row>
-    <row r="6" ht="28.429499999999997" customHeight="true">
+      <c r="E5" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" ht="14.214749999999999" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E6" s="1" t="s"/>
     </row>
     <row r="7" ht="28.429499999999997" customHeight="true">
-      <c r="A7" s="1" t="s"/>
+      <c r="A7" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="1" t="s"/>
-      <c r="D7" s="1" t="s"/>
-    </row>
-    <row r="8" ht="42.64425" customHeight="true">
+        <v>209</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="1" t="s"/>
+    </row>
+    <row r="8" ht="28.429499999999997" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C8" s="1" t="s"/>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>192</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.72</v>
       </c>
     </row>
     <row r="9" ht="42.64425" customHeight="true">
-      <c r="A9" s="1" t="s"/>
+      <c r="A9" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s"/>
       <c r="D9" s="1" t="s"/>
+      <c r="E9" s="1" t="s"/>
     </row>
     <row r="10" ht="42.64425" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>319</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E10" s="1" t="s"/>
     </row>
     <row r="11" ht="14.214749999999999" customHeight="true">
-      <c r="A11" s="1" t="s"/>
+      <c r="A11" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>320</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C11" s="1" t="s"/>
       <c r="D11" s="1" t="s"/>
+      <c r="E11" s="5">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="12" ht="14.214749999999999" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B12" s="1" t="s"/>
       <c r="C12" s="1" t="s"/>
-      <c r="D12" s="1" t="s"/>
+      <c r="D12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1" t="s"/>
     </row>
     <row r="13" ht="28.429499999999997" customHeight="true">
       <c r="A13" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B13" s="1" t="s"/>
-      <c r="C13" s="1" t="s"/>
-      <c r="D13" s="1" t="s"/>
+        <v>295</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="1" t="s"/>
     </row>
     <row r="14" ht="28.429499999999997" customHeight="true">
       <c r="A14" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1" t="s"/>
-      <c r="D14" s="1" t="s"/>
+      <c r="D14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="15" ht="42.64425" customHeight="true">
       <c r="A15" s="1" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s"/>
       <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s"/>
     </row>
     <row r="16" ht="28.429499999999997" customHeight="true">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="1" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D16" s="1" t="s"/>
+      <c r="E16" s="1" t="s"/>
     </row>
     <row r="17" ht="42.64425" customHeight="true">
       <c r="A17" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s"/>
       <c r="D17" s="1" t="s"/>
+      <c r="E17" s="5">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="18" ht="28.429499999999997" customHeight="true">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s"/>
+      <c r="A18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="1" t="s"/>
       <c r="D18" s="1" t="s"/>
-    </row>
-    <row r="19" ht="28.429499999999997" customHeight="true"/>
+      <c r="E18" s="1" t="s"/>
+    </row>
+    <row r="19" ht="14.214749999999999" customHeight="true">
+      <c r="A19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="1" t="s"/>
+      <c r="E19" s="1" t="s"/>
+    </row>
+    <row r="20" ht="28.429499999999997" customHeight="true">
+      <c r="A20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1" t="s"/>
+    </row>
+    <row r="21" ht="14.214749999999999" customHeight="true">
+      <c r="A21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="1" t="s"/>
+    </row>
+    <row r="22" ht="28.429499999999997" customHeight="true">
+      <c r="A22" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s"/>
+      <c r="D22" s="1" t="s"/>
+      <c r="E22" s="1" t="s"/>
+    </row>
+    <row r="23" ht="14.214749999999999" customHeight="true">
+      <c r="A23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="1" t="s"/>
+      <c r="E23" s="1" t="s"/>
+    </row>
+    <row r="24" ht="14.214749999999999" customHeight="true">
+      <c r="A24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E24" s="1" t="s"/>
+    </row>
+    <row r="25" ht="14.214749999999999" customHeight="true">
+      <c r="A25" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D25" s="2">
+        <v>100</v>
+      </c>
+      <c r="E25" s="1" t="s"/>
+    </row>
+    <row r="26" ht="14.214749999999999" customHeight="true">
+      <c r="A26" s="1" t="s"/>
+      <c r="B26" s="1" t="s"/>
+      <c r="C26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26" s="2">
+        <v>100</v>
+      </c>
+      <c r="E26" s="1" t="s"/>
+    </row>
+    <row r="27" ht="14.214749999999999" customHeight="true">
+      <c r="A27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="1" t="s"/>
+      <c r="C27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="2">
+        <v>200</v>
+      </c>
+      <c r="E27" s="1" t="s"/>
+    </row>
+    <row r="28" ht="14.214749999999999" customHeight="true">
+      <c r="A28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="1" t="s"/>
+      <c r="C28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="2">
+        <v>300</v>
+      </c>
+      <c r="E28" s="1" t="s"/>
+    </row>
+    <row r="29" ht="14.214749999999999" customHeight="true">
+      <c r="A29" s="1" t="s"/>
+      <c r="B29" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="2">
+        <v>300</v>
+      </c>
+      <c r="E29" s="1" t="s"/>
+    </row>
+    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="A30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="1" t="s"/>
+      <c r="C30" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="2">
+        <v>400</v>
+      </c>
+      <c r="E30" s="1" t="s"/>
+    </row>
+    <row r="31" ht="14.214749999999999" customHeight="true">
+      <c r="A31" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="1" t="s"/>
+      <c r="D31" s="1" t="s"/>
+      <c r="E31" s="1" t="s"/>
+    </row>
+    <row r="32" ht="14.214749999999999" customHeight="true">
+      <c r="A32" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="1" t="s"/>
+      <c r="E32" s="1" t="s"/>
+    </row>
+    <row r="33" ht="14.214749999999999" customHeight="true">
+      <c r="A33" s="1" t="s"/>
+      <c r="B33" s="1" t="s"/>
+      <c r="C33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" s="1" t="s"/>
+    </row>
+    <row r="34" ht="28.429499999999997" customHeight="true">
+      <c r="A34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E34" s="1" t="s"/>
+    </row>
+    <row r="35" ht="42.64425" customHeight="true">
+      <c r="A35" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" s="1" t="s"/>
+    </row>
+    <row r="36" ht="28.429499999999997" customHeight="true">
+      <c r="A36" s="1" t="s"/>
+      <c r="B36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E36" s="1" t="s"/>
+    </row>
+    <row r="37" ht="14.214749999999999" customHeight="true"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="2">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
